--- a/data/trans_orig/P0802-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>419948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>404480</v>
+        <v>405234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>432339</v>
+        <v>433511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8863852061584911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8537366836979182</v>
+        <v>0.8553287169212458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9125394552883508</v>
+        <v>0.9150136284563055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>250</v>
@@ -765,19 +765,19 @@
         <v>257926</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>243960</v>
+        <v>244122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>269965</v>
+        <v>270221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8410265115391444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7954869887818782</v>
+        <v>0.7960141344338657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8802818036765303</v>
+        <v>0.881117493798394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>653</v>
@@ -786,19 +786,19 @@
         <v>677875</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>659196</v>
+        <v>658086</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>696944</v>
+        <v>695842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8685615143053927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8446282330749791</v>
+        <v>0.8432063463328051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8929945656552456</v>
+        <v>0.8915824002118969</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25741</v>
+        <v>25751</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48876</v>
+        <v>48579</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07583657415821096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05433174123229688</v>
+        <v>0.05435189748971644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1031635663808279</v>
+        <v>0.1025360498019268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>34078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23806</v>
+        <v>24386</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46059</v>
+        <v>46069</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1111202030689596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07762367951123098</v>
+        <v>0.07951462976176288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1501846515103831</v>
+        <v>0.1502198585647818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -857,19 +857,19 @@
         <v>70008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54760</v>
+        <v>55251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87567</v>
+        <v>87001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08970127053983971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07016458467480673</v>
+        <v>0.07079357729494905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1121998243891576</v>
+        <v>0.1114746079739248</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>17898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10702</v>
+        <v>10468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29028</v>
+        <v>28903</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03777821968329789</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02258904057614279</v>
+        <v>0.02209537115545785</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06126875031585095</v>
+        <v>0.06100596297071981</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -907,19 +907,19 @@
         <v>14676</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8578</v>
+        <v>8321</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24113</v>
+        <v>24661</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04785328539189592</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0279705435325023</v>
+        <v>0.02713180872956175</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07862677677553234</v>
+        <v>0.08041134939360857</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -928,19 +928,19 @@
         <v>32574</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21980</v>
+        <v>22501</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45727</v>
+        <v>46146</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04173721515476758</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02816299363135399</v>
+        <v>0.02883096554570033</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05859023023172465</v>
+        <v>0.05912631786553273</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>335156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>321483</v>
+        <v>322191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>344679</v>
+        <v>344769</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9133960683218314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8761324547479753</v>
+        <v>0.8780630008802467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9393492386477109</v>
+        <v>0.9395953023907047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -1053,19 +1053,19 @@
         <v>341909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>329215</v>
+        <v>328234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350892</v>
+        <v>351077</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9194445039011506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8853080431896329</v>
+        <v>0.8826703935212415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9436003061274427</v>
+        <v>0.9440969506853987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -1074,19 +1074,19 @@
         <v>677065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>661200</v>
+        <v>660363</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>691397</v>
+        <v>690159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9164404696636658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8949659360006998</v>
+        <v>0.8938325714018909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9358397766797351</v>
+        <v>0.9341629491354644</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>22955</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14242</v>
+        <v>14937</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34632</v>
+        <v>34340</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06255938711584087</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03881419046669625</v>
+        <v>0.04070724272962922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0943818074377398</v>
+        <v>0.09358516957524037</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1124,19 +1124,19 @@
         <v>20559</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13284</v>
+        <v>12714</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31515</v>
+        <v>32292</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05528649817831</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03572341369860863</v>
+        <v>0.03419034642832179</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08474976215738107</v>
+        <v>0.086837418305031</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>41</v>
@@ -1145,19 +1145,19 @@
         <v>43514</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>31630</v>
+        <v>32201</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>56640</v>
+        <v>56708</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05889867310970381</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04281272538587119</v>
+        <v>0.04358563074512571</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07666514010193412</v>
+        <v>0.0767563652600745</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>8823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3748</v>
+        <v>4407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16965</v>
+        <v>17890</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02404454456232774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01021461694557165</v>
+        <v>0.0120115407830093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04623535270247336</v>
+        <v>0.04875432979789089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1195,19 +1195,19 @@
         <v>9397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4595</v>
+        <v>4415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17174</v>
+        <v>17160</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0252689979205394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01235705966507665</v>
+        <v>0.01187356451249918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04618316247913178</v>
+        <v>0.04614493288111451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1216,19 +1216,19 @@
         <v>18219</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10382</v>
+        <v>10268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28904</v>
+        <v>28936</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0246608572266304</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01405218114318945</v>
+        <v>0.01389836090922214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03912254087525207</v>
+        <v>0.0391662445427827</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>472449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>455729</v>
+        <v>456149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>486326</v>
+        <v>486400</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8710516311404936</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8402256622914092</v>
+        <v>0.8410006017509688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8966367778610806</v>
+        <v>0.8967740360931852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>126</v>
@@ -1341,19 +1341,19 @@
         <v>128189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>115675</v>
+        <v>116541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139021</v>
+        <v>138279</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7640196170780336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6894349629063523</v>
+        <v>0.6945967041387072</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.828579577578811</v>
+        <v>0.8241613891249905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>585</v>
@@ -1362,19 +1362,19 @@
         <v>600638</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>580131</v>
+        <v>578374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>618583</v>
+        <v>618239</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8457647136997507</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.816889571567621</v>
+        <v>0.8144153445958873</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8710334745487882</v>
+        <v>0.8705488680447079</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>51331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39796</v>
+        <v>39981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68289</v>
+        <v>66751</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09463885394589379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07337133898101951</v>
+        <v>0.07371340689058865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1259035391997155</v>
+        <v>0.1230686735861918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1412,19 +1412,19 @@
         <v>24559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15970</v>
+        <v>17158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34583</v>
+        <v>35277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1463745799214087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09518156285686558</v>
+        <v>0.1022635847845148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.206117384500231</v>
+        <v>0.2102569591169088</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1433,19 +1433,19 @@
         <v>75890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60187</v>
+        <v>61108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95195</v>
+        <v>94128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1068617112184506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08474969717546477</v>
+        <v>0.08604699885061828</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1340457216557523</v>
+        <v>0.1325427657219814</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>18609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11240</v>
+        <v>11832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28622</v>
+        <v>30005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03430951491361266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02072378187006048</v>
+        <v>0.02181462064614751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05277089671058607</v>
+        <v>0.0553203826807207</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1483,19 +1483,19 @@
         <v>15034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8669</v>
+        <v>9526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23914</v>
+        <v>23894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08960580300055773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05166526747956088</v>
+        <v>0.05677529483642651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.142532684576256</v>
+        <v>0.1424088444751233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1504,19 +1504,19 @@
         <v>33643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23422</v>
+        <v>22250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46537</v>
+        <v>47768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04737357508179868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03298045912061037</v>
+        <v>0.03133057249058651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06552984832430314</v>
+        <v>0.0672623105246596</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1005352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>976370</v>
+        <v>978350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1030566</v>
+        <v>1030767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8118587760401114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7884542860349657</v>
+        <v>0.7900535992463965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8322196420579557</v>
+        <v>0.8323821800206936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>552</v>
@@ -1629,19 +1629,19 @@
         <v>571298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>549920</v>
+        <v>549836</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>591948</v>
+        <v>590938</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7998185651832193</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7698890417944743</v>
+        <v>0.7697713618110755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8287282576241278</v>
+        <v>0.8273138792414586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1535</v>
@@ -1650,19 +1650,19 @@
         <v>1576652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1539570</v>
+        <v>1540573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1608675</v>
+        <v>1609306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8074543618817578</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7884639189642627</v>
+        <v>0.7889774092673398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8238547613229272</v>
+        <v>0.8241775783171005</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>174318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149616</v>
+        <v>152803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196681</v>
+        <v>201531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1407683649327368</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1208205389344716</v>
+        <v>0.1233937641340702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1588274110181546</v>
+        <v>0.1627434472226241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -1700,19 +1700,19 @@
         <v>115814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98080</v>
+        <v>98351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136870</v>
+        <v>137222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1621398354495214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1373121647695114</v>
+        <v>0.1376912202737376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1916178543553907</v>
+        <v>0.1921103104042921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>294</v>
@@ -1721,19 +1721,19 @@
         <v>290132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>262524</v>
+        <v>261338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326431</v>
+        <v>321929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.148586235271368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1344468299091115</v>
+        <v>0.1338394630149344</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1671760800136048</v>
+        <v>0.1648701860904897</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>58663</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44257</v>
+        <v>45585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72623</v>
+        <v>73844</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04737285902715176</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03573954859569541</v>
+        <v>0.03681164160351736</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05864589848307391</v>
+        <v>0.05963211437776578</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1771,19 +1771,19 @@
         <v>27173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17455</v>
+        <v>18241</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37256</v>
+        <v>39229</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0380415993672594</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02443769165227285</v>
+        <v>0.02553806225580854</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05215805183007104</v>
+        <v>0.05492111452500337</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>89</v>
@@ -1792,19 +1792,19 @@
         <v>85836</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67727</v>
+        <v>69796</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104228</v>
+        <v>105382</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0439594028468742</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03468513991353409</v>
+        <v>0.0357449097315678</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05337865832722236</v>
+        <v>0.05396942207981444</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>293962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280681</v>
+        <v>277859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306964</v>
+        <v>306410</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8385630292857337</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8006767000540118</v>
+        <v>0.7926250123333075</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.875652569307277</v>
+        <v>0.8740698522886259</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>428</v>
@@ -1917,19 +1917,19 @@
         <v>450611</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>430850</v>
+        <v>429260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>470937</v>
+        <v>468784</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7922795628294345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7575351218194791</v>
+        <v>0.7547406076834322</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8280186045005991</v>
+        <v>0.8242326342756483</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>709</v>
@@ -1938,19 +1938,19 @@
         <v>744573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>718937</v>
+        <v>720623</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>767060</v>
+        <v>767540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8099286301314892</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7820426754836592</v>
+        <v>0.7838757940205171</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8343897898891047</v>
+        <v>0.8349114117337545</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>42449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31455</v>
+        <v>31525</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55029</v>
+        <v>56154</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1210907381419757</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08972788504912667</v>
+        <v>0.08992983545624735</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1569770489962425</v>
+        <v>0.1601853714624258</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -1988,19 +1988,19 @@
         <v>83743</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>67002</v>
+        <v>67299</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>101414</v>
+        <v>101236</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1472406764695711</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1178052741099238</v>
+        <v>0.1183271147957889</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1783093262788157</v>
+        <v>0.1779971592149318</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>122</v>
@@ -2009,19 +2009,19 @@
         <v>126192</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>107556</v>
+        <v>105135</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>149008</v>
+        <v>148688</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1372690374194995</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.116996446362701</v>
+        <v>0.1143636006789189</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1620876379432417</v>
+        <v>0.1617387576675527</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>14144</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8479</v>
+        <v>8233</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22700</v>
+        <v>21966</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04034623257229066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02418725925533615</v>
+        <v>0.02348669260336988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06475370304445456</v>
+        <v>0.06265972132861453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2059,19 +2059,19 @@
         <v>34398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23726</v>
+        <v>24071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47267</v>
+        <v>47072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0604797607009944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04171651473558584</v>
+        <v>0.04232181729290057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08310598862691659</v>
+        <v>0.0827632531003139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2080,19 +2080,19 @@
         <v>48542</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37417</v>
+        <v>36565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65124</v>
+        <v>63122</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05280233244901129</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04070117534907079</v>
+        <v>0.03977499140920523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07084064606415748</v>
+        <v>0.0686631138178843</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>287905</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>280149</v>
+        <v>280919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>292775</v>
+        <v>292756</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9654728612904133</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9394644533828466</v>
+        <v>0.9420447439003266</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9818047257792276</v>
+        <v>0.9817408335544453</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>847</v>
@@ -2205,19 +2205,19 @@
         <v>843667</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>812350</v>
+        <v>808820</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>876078</v>
+        <v>873885</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6756035102083746</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6505253820997395</v>
+        <v>0.6476988160225752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7015583917552325</v>
+        <v>0.6998020905617832</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1142</v>
@@ -2226,19 +2226,19 @@
         <v>1131571</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1095745</v>
+        <v>1095421</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1167339</v>
+        <v>1163243</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7314803127967917</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.708321327034063</v>
+        <v>0.7081119186578655</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7546020359152835</v>
+        <v>0.7519542246760067</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>7428</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2812</v>
+        <v>3526</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14171</v>
+        <v>13993</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02491029491956067</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009428239261449124</v>
+        <v>0.01182559732894073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04752271859151189</v>
+        <v>0.04692343380417114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>285</v>
@@ -2276,19 +2276,19 @@
         <v>292247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>262612</v>
+        <v>265069</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>323574</v>
+        <v>322039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2340293988291693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2102986080985201</v>
+        <v>0.2122660551402393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2591161819607997</v>
+        <v>0.2578866970928551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>293</v>
@@ -2297,19 +2297,19 @@
         <v>299675</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>268806</v>
+        <v>269875</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328154</v>
+        <v>332371</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1937184558370734</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1737641530719145</v>
+        <v>0.1744550665065146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2121284308158729</v>
+        <v>0.2148540662013941</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>2868</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8246</v>
+        <v>7269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009616843790026029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00296563121760134</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02765156906923245</v>
+        <v>0.02437525240913119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -2347,19 +2347,19 @@
         <v>112847</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>91493</v>
+        <v>93470</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133399</v>
+        <v>134947</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09036709096245604</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07326683186706318</v>
+        <v>0.0748502215522598</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.106825282169774</v>
+        <v>0.1080649493647592</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -2368,19 +2368,19 @@
         <v>115715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>96271</v>
+        <v>97698</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>138125</v>
+        <v>138816</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07480123136613481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06223234470472526</v>
+        <v>0.06315502401297236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08928827562173845</v>
+        <v>0.0897347942477222</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2814774</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2775225</v>
+        <v>2772270</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2853337</v>
+        <v>2851780</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8607369915122283</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8486434172068281</v>
+        <v>0.8477397518057831</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.872529518668043</v>
+        <v>0.8720533638366951</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2538</v>
@@ -2493,19 +2493,19 @@
         <v>2593600</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2544417</v>
+        <v>2546091</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2641489</v>
+        <v>2644087</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7677633027274338</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7532040278047175</v>
+        <v>0.7536996477836696</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7819397474725576</v>
+        <v>0.7827086990363615</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5279</v>
@@ -2514,19 +2514,19 @@
         <v>5408373</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5338527</v>
+        <v>5343301</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5467137</v>
+        <v>5466453</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8134954426842901</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8029895418546865</v>
+        <v>0.803707733065822</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8223343958812955</v>
+        <v>0.8222314598634674</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>334411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>299804</v>
+        <v>302067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>368735</v>
+        <v>369885</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1022605472939447</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09167778778519689</v>
+        <v>0.09236981058358948</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1127563367445487</v>
+        <v>0.113108224537123</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>555</v>
@@ -2564,19 +2564,19 @@
         <v>571000</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>528432</v>
+        <v>529697</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>614573</v>
+        <v>611152</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1690288739546693</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1564277949565279</v>
+        <v>0.1568020533493287</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1819272435611468</v>
+        <v>0.1809145548756299</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>898</v>
@@ -2585,19 +2585,19 @@
         <v>905412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>851425</v>
+        <v>854954</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>962318</v>
+        <v>966051</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1361866957057114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1280663034437528</v>
+        <v>0.12859712590909</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1447461392389156</v>
+        <v>0.1453076732042295</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>121005</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>100809</v>
+        <v>102343</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>145452</v>
+        <v>145388</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03700246119382705</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03082678087710066</v>
+        <v>0.03129580930868694</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04447814150181902</v>
+        <v>0.04445866531606014</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -2635,19 +2635,19 @@
         <v>213524</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>187953</v>
+        <v>185119</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>243463</v>
+        <v>244938</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0632078233178969</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05563820757578607</v>
+        <v>0.05479931369908683</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07207043229399852</v>
+        <v>0.07250716873657859</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>326</v>
@@ -2656,19 +2656,19 @@
         <v>334529</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>301746</v>
+        <v>300844</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>371017</v>
+        <v>369745</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0503178616099985</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04538688969615892</v>
+        <v>0.04525111787409327</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05580616275210815</v>
+        <v>0.05561489403176758</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>380399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>363426</v>
+        <v>362869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393020</v>
+        <v>394377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8700584867013499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.831237716601443</v>
+        <v>0.829962781807574</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8989251565905286</v>
+        <v>0.9020298144473995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -3023,19 +3023,19 @@
         <v>277361</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>264196</v>
+        <v>263244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288719</v>
+        <v>287253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8820415006141372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.840172407014228</v>
+        <v>0.8371474848518999</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9181597899424472</v>
+        <v>0.9134970503001044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>603</v>
@@ -3044,19 +3044,19 @@
         <v>657761</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>635567</v>
+        <v>636141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>675267</v>
+        <v>674023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8750715038494656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8455454974437397</v>
+        <v>0.8463097653795288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8983615971628309</v>
+        <v>0.8967067276785404</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>47399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36174</v>
+        <v>34844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65355</v>
+        <v>64553</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1084123107477704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08273779458898974</v>
+        <v>0.07969632579298681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.149482235065856</v>
+        <v>0.1476464277464936</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -3094,19 +3094,19 @@
         <v>25850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16615</v>
+        <v>17181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37166</v>
+        <v>38142</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08220688633356292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05283628415130862</v>
+        <v>0.05463620308834342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1181909274279885</v>
+        <v>0.1212973484484962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -3115,19 +3115,19 @@
         <v>73249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57518</v>
+        <v>58052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93191</v>
+        <v>92599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09744943922661764</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0765202046448637</v>
+        <v>0.07723131036028248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1239797593440346</v>
+        <v>0.1231922114012882</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>9413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4085</v>
+        <v>4161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18722</v>
+        <v>18726</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02152920255087976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009343819922119273</v>
+        <v>0.00951745221762885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0428205276040074</v>
+        <v>0.04283023966531959</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3165,19 +3165,19 @@
         <v>11242</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6009</v>
+        <v>5929</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18852</v>
+        <v>19470</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0357516130522999</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01910838170074553</v>
+        <v>0.0188543153408969</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0599506876820281</v>
+        <v>0.06191600338204403</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -3186,19 +3186,19 @@
         <v>20655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12778</v>
+        <v>12521</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32434</v>
+        <v>31121</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02747905692391676</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01699893258641371</v>
+        <v>0.01665814525033851</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04314974007197403</v>
+        <v>0.04140293885570911</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>370171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356618</v>
+        <v>355152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>383150</v>
+        <v>382278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8901289569529983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8575392290528315</v>
+        <v>0.8540132775128081</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9213383980919209</v>
+        <v>0.9192415878189445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>270</v>
@@ -3311,19 +3311,19 @@
         <v>300237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>288395</v>
+        <v>287236</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>311416</v>
+        <v>311147</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8882448236664212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8532130216930531</v>
+        <v>0.849782801697662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9213202521891036</v>
+        <v>0.9205236350696896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>602</v>
@@ -3332,19 +3332,19 @@
         <v>670407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653197</v>
+        <v>651070</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>688448</v>
+        <v>686848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8892841758475912</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8664545516930962</v>
+        <v>0.8636340072850972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9132145927585654</v>
+        <v>0.9110918900958314</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>34001</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23491</v>
+        <v>22987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45808</v>
+        <v>46063</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08175921127376601</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05648670719936177</v>
+        <v>0.05527514646534697</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1101523442752343</v>
+        <v>0.1107659376567403</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -3382,19 +3382,19 @@
         <v>25612</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17238</v>
+        <v>16634</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35895</v>
+        <v>36761</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07577219207130531</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05099880936157666</v>
+        <v>0.04921131045211243</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1061949991289767</v>
+        <v>0.1087556932651325</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -3403,19 +3403,19 @@
         <v>59612</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>44750</v>
+        <v>45981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75274</v>
+        <v>76622</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07907483605679989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.059359991929788</v>
+        <v>0.0609936047070958</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09985025146537783</v>
+        <v>0.1016371859290862</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>11691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5340</v>
+        <v>5516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22268</v>
+        <v>23384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02811183177323566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01283984821809223</v>
+        <v>0.0132644626905655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0535455339366547</v>
+        <v>0.05623101766294643</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3453,19 +3453,19 @@
         <v>12163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6479</v>
+        <v>6191</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21821</v>
+        <v>21510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03598298426227346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0191692235350435</v>
+        <v>0.01831480723620465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06455629498541043</v>
+        <v>0.06363845708111714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -3474,19 +3474,19 @@
         <v>23853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15699</v>
+        <v>14745</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36624</v>
+        <v>36346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0316409880956089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02082402876668448</v>
+        <v>0.01955958118461756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04858076482814139</v>
+        <v>0.04821277675289702</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>512436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>490865</v>
+        <v>486727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>532826</v>
+        <v>530614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8154243108559251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7810990105458989</v>
+        <v>0.7745142995260007</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8478704602512562</v>
+        <v>0.8443502793607408</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -3599,19 +3599,19 @@
         <v>190433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174709</v>
+        <v>175453</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>204042</v>
+        <v>204066</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7320732999251871</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6716238355442564</v>
+        <v>0.6744831730727814</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7843886295546642</v>
+        <v>0.7844811419380989</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>670</v>
@@ -3620,19 +3620,19 @@
         <v>702870</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>676481</v>
+        <v>675804</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>727927</v>
+        <v>729855</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7910229178697915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7613249263010217</v>
+        <v>0.7605627883017811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8192229582071674</v>
+        <v>0.8213927211824404</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>75790</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58794</v>
+        <v>60246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94273</v>
+        <v>95828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1206019101529763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09355779773213208</v>
+        <v>0.09586810323251377</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1500135067463971</v>
+        <v>0.1524881937435265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3670,19 +3670,19 @@
         <v>43785</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31574</v>
+        <v>32955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57557</v>
+        <v>57399</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1683214210107237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1213766916353464</v>
+        <v>0.1266888132907434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2212634683830851</v>
+        <v>0.2206569708656227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -3691,19 +3691,19 @@
         <v>119575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99240</v>
+        <v>99609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142923</v>
+        <v>143434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1345720171084104</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1116867137692885</v>
+        <v>0.1121017922089984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1608486466557681</v>
+        <v>0.1614232541285518</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>40203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28021</v>
+        <v>28777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56678</v>
+        <v>56820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0639737789910986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04458909449760418</v>
+        <v>0.04579121144558412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09018936947866306</v>
+        <v>0.09041529387547945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3741,19 +3741,19 @@
         <v>25910</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17240</v>
+        <v>16750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37093</v>
+        <v>36777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09960527906408917</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06627592104385585</v>
+        <v>0.06439167125590033</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1425937879637204</v>
+        <v>0.1413791088004368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -3762,19 +3762,19 @@
         <v>66113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50109</v>
+        <v>51603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85502</v>
+        <v>84098</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07440506502179815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05639377226609139</v>
+        <v>0.05807524691367254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09622515001831575</v>
+        <v>0.09464510425602235</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>943645</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>915856</v>
+        <v>915417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>971692</v>
+        <v>969586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8141827588171673</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7902060318180077</v>
+        <v>0.7898277493888834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.838381543223772</v>
+        <v>0.8365645291816355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>601</v>
@@ -3887,19 +3887,19 @@
         <v>644599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>623454</v>
+        <v>622058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>665962</v>
+        <v>664126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8407922993333208</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8132110571666369</v>
+        <v>0.8113902248244274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8686568274954888</v>
+        <v>0.8662622182656284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1484</v>
@@ -3908,19 +3908,19 @@
         <v>1588245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1552029</v>
+        <v>1555479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1619887</v>
+        <v>1622788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8247767013511493</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8059696918554922</v>
+        <v>0.8077613369179208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8412082061918826</v>
+        <v>0.8427146912976934</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>138455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118052</v>
+        <v>118382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163188</v>
+        <v>162087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1194597156194382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1018556026031306</v>
+        <v>0.1021405113775633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.140799988484272</v>
+        <v>0.1398492198000223</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -3958,19 +3958,19 @@
         <v>75121</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58739</v>
+        <v>59573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94194</v>
+        <v>92911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09798510494491462</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07661724513575217</v>
+        <v>0.07770481277944079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.122863365074057</v>
+        <v>0.1211898237901746</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>198</v>
@@ -3979,19 +3979,19 @@
         <v>213576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>189043</v>
+        <v>185712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245846</v>
+        <v>241333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1109101207368271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09816989007844562</v>
+        <v>0.09644035684587465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1276681875046924</v>
+        <v>0.1253244532674291</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>76909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59746</v>
+        <v>61446</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96345</v>
+        <v>97763</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06635752556339451</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05154889325141226</v>
+        <v>0.05301640510814317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08312738662066442</v>
+        <v>0.08435039781730136</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -4029,19 +4029,19 @@
         <v>46937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34563</v>
+        <v>34635</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62767</v>
+        <v>63250</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06122259572176453</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04508274775967477</v>
+        <v>0.04517638306976479</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08187131564361688</v>
+        <v>0.08250089162819624</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -4050,19 +4050,19 @@
         <v>123846</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102756</v>
+        <v>103590</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149689</v>
+        <v>147364</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06431317791202362</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05336139777688863</v>
+        <v>0.0537945056120576</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07773357755077057</v>
+        <v>0.07652603556060378</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>422410</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>402887</v>
+        <v>405834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>438644</v>
+        <v>439372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8272878845311744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7890531916818238</v>
+        <v>0.7948242248941879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8590830136878039</v>
+        <v>0.8605075823676656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>469</v>
@@ -4175,19 +4175,19 @@
         <v>508948</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>480233</v>
+        <v>482195</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>532804</v>
+        <v>534728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6683305147244081</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6306222692532903</v>
+        <v>0.6331995112037506</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6996567451705111</v>
+        <v>0.7021831166702871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>873</v>
@@ -4196,19 +4196,19 @@
         <v>931358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>897570</v>
+        <v>900010</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>960126</v>
+        <v>962577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7321320197701435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7055711398242587</v>
+        <v>0.7074890582580479</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7547456465195979</v>
+        <v>0.7566730457491841</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>57647</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44431</v>
+        <v>43715</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73284</v>
+        <v>72137</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1129022388837391</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08701812083003735</v>
+        <v>0.08561466040719103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1435263383645974</v>
+        <v>0.1412801346479474</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>134</v>
@@ -4246,19 +4246,19 @@
         <v>144656</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>123266</v>
+        <v>123307</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>167518</v>
+        <v>167732</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.18995618146984</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1618674812422343</v>
+        <v>0.1619223382593042</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.219978336910075</v>
+        <v>0.2202584947459663</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>188</v>
@@ -4267,19 +4267,19 @@
         <v>202303</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>175722</v>
+        <v>177024</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>231019</v>
+        <v>229022</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1590286597533121</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1381333524513714</v>
+        <v>0.1391565306608966</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1816016061946045</v>
+        <v>0.1800323846731194</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>30539</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21146</v>
+        <v>21134</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41589</v>
+        <v>42776</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0598098765850865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04141384710117765</v>
+        <v>0.04139170235651463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08145134268549073</v>
+        <v>0.08377563859568682</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -4317,19 +4317,19 @@
         <v>107918</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89194</v>
+        <v>89655</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129932</v>
+        <v>127850</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.141713303805752</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1171265517700954</v>
+        <v>0.1177312134083273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.170621217372297</v>
+        <v>0.1678873660157006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -4338,19 +4338,19 @@
         <v>138456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116455</v>
+        <v>118356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>164313</v>
+        <v>162281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1088393204765444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09154403386780198</v>
+        <v>0.09303830222860014</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.129164890834176</v>
+        <v>0.1275677800316439</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>256165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>248164</v>
+        <v>248379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>261921</v>
+        <v>261949</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9598422804195187</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9298640376093463</v>
+        <v>0.9306687164622273</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9814095363252837</v>
+        <v>0.9815149980684035</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>677</v>
@@ -4463,19 +4463,19 @@
         <v>715862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>680841</v>
+        <v>681416</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>745157</v>
+        <v>745866</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6459307964473411</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6143306638666922</v>
+        <v>0.6148494675569551</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6723643806261794</v>
+        <v>0.6730040975495449</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>932</v>
@@ -4484,19 +4484,19 @@
         <v>972026</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>939933</v>
+        <v>937271</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1004991</v>
+        <v>1008242</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7068532788456244</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6835149627847523</v>
+        <v>0.6815793745446016</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7308246904146036</v>
+        <v>0.7331893995280638</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>5961</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2016</v>
+        <v>2245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11937</v>
+        <v>12236</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02233386862243234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007554801226749097</v>
+        <v>0.008413070141515605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04472903502755709</v>
+        <v>0.04584641862892174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>235</v>
@@ -4534,19 +4534,19 @@
         <v>250223</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>226065</v>
+        <v>223298</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>281719</v>
+        <v>276453</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2257788844868527</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2039807549058398</v>
+        <v>0.2014846292356521</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2541980788746051</v>
+        <v>0.2494467059186956</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -4555,19 +4555,19 @@
         <v>256183</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226886</v>
+        <v>229056</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>283950</v>
+        <v>286170</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1862952209993546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1649902262314658</v>
+        <v>0.1665684329793942</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2064869960860341</v>
+        <v>0.2081015848356648</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>4757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13251</v>
+        <v>11490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01782385095804896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006481182492238484</v>
+        <v>0.006615538842655672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04965095855802796</v>
+        <v>0.0430545547537499</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>131</v>
@@ -4605,19 +4605,19 @@
         <v>142180</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120761</v>
+        <v>121981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>166080</v>
+        <v>166688</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1282903190658062</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1089638527237941</v>
+        <v>0.1100653207598136</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1498560287027584</v>
+        <v>0.1504047997821185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -4626,19 +4626,19 @@
         <v>146936</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>123143</v>
+        <v>124946</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>172611</v>
+        <v>174406</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.106851500155021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08954897901758983</v>
+        <v>0.0908602920678815</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1255222792273506</v>
+        <v>0.1268273048693645</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2885226</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2840737</v>
+        <v>2843213</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2931642</v>
+        <v>2928884</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.844129658833683</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8311136949328412</v>
+        <v>0.8318379532747781</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8577095523661887</v>
+        <v>0.8569027385074078</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2446</v>
@@ -4751,19 +4751,19 @@
         <v>2637442</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2586679</v>
+        <v>2584901</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2688981</v>
+        <v>2691348</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7431427502899781</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7288395340099952</v>
+        <v>0.728338525945925</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7576647652035523</v>
+        <v>0.7583318079797345</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5164</v>
@@ -4772,19 +4772,19 @@
         <v>5522668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5440430</v>
+        <v>5441340</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5593568</v>
+        <v>5587859</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7926864279412793</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7808826105061543</v>
+        <v>0.7810131958425963</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8028629189867039</v>
+        <v>0.8020435189087151</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>359252</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>320427</v>
+        <v>324129</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>396419</v>
+        <v>396202</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1051062953629939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09374717939675338</v>
+        <v>0.0948303364096445</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1159803200226036</v>
+        <v>0.1159166427898058</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>524</v>
@@ -4822,19 +4822,19 @@
         <v>565247</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>521850</v>
+        <v>517376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>607848</v>
+        <v>606485</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1592676398067224</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1470399044910449</v>
+        <v>0.1457793616599695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1712711947957625</v>
+        <v>0.1708872823368267</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>854</v>
@@ -4843,19 +4843,19 @@
         <v>924499</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>869902</v>
+        <v>870914</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>988598</v>
+        <v>994386</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1326963522113616</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1248598301708189</v>
+        <v>0.1250050923715382</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1418966605397688</v>
+        <v>0.1427275080279082</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>173511</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>146702</v>
+        <v>146479</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>205433</v>
+        <v>202670</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05076404580332318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04292068973330465</v>
+        <v>0.04285542944751057</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06010358807454156</v>
+        <v>0.05929519567748638</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>319</v>
@@ -4893,19 +4893,19 @@
         <v>346349</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>311770</v>
+        <v>311712</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>382299</v>
+        <v>386405</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09758960990329946</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08784631697010264</v>
+        <v>0.08782993417795927</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1077189172894669</v>
+        <v>0.1088760943474602</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>473</v>
@@ -4914,19 +4914,19 @@
         <v>519860</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>475682</v>
+        <v>476484</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>568397</v>
+        <v>567795</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07461721984735908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06827620247969719</v>
+        <v>0.06839123410786431</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08158384413065028</v>
+        <v>0.08149750014923117</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>380225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>364266</v>
+        <v>365378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>391803</v>
+        <v>392323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8861160928527879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8489219497509628</v>
+        <v>0.8515142605769875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9130985264867012</v>
+        <v>0.9143088388085541</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>299</v>
@@ -5281,19 +5281,19 @@
         <v>307184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>292256</v>
+        <v>291037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>319723</v>
+        <v>317622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8851149376251888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8421025800422673</v>
+        <v>0.8385902059498554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9212452842014671</v>
+        <v>0.9151908895464957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>650</v>
@@ -5302,19 +5302,19 @@
         <v>687409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>668067</v>
+        <v>667700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>705281</v>
+        <v>706268</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8856684252445811</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8607477713548034</v>
+        <v>0.8602752467792777</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9086945141334493</v>
+        <v>0.9099672899150973</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>35167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24339</v>
+        <v>25161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49228</v>
+        <v>48232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08195780895178284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05672109045970067</v>
+        <v>0.05863889629946777</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1147265638831969</v>
+        <v>0.1124037857803034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -5352,19 +5352,19 @@
         <v>23534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14926</v>
+        <v>14702</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36294</v>
+        <v>35580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06780986106640911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04300638907867395</v>
+        <v>0.0423608342696765</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1045762185187158</v>
+        <v>0.1025210448203158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -5373,19 +5373,19 @@
         <v>58701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44335</v>
+        <v>44019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75523</v>
+        <v>74696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07563153924227113</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05712186384437581</v>
+        <v>0.05671417798014267</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09730532128090405</v>
+        <v>0.09623943214348124</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>13699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7126</v>
+        <v>7700</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22849</v>
+        <v>23315</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03192609819542926</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01660782557123137</v>
+        <v>0.01794390633628074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.053250526893231</v>
+        <v>0.05433675658562544</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5423,19 +5423,19 @@
         <v>16338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8964</v>
+        <v>9196</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28160</v>
+        <v>28199</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04707520130840212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02582992071181544</v>
+        <v>0.02649788603855377</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08114058874095686</v>
+        <v>0.08125303023812042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -5444,19 +5444,19 @@
         <v>30037</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20641</v>
+        <v>19142</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43619</v>
+        <v>43983</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03870003551314777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02659440368897054</v>
+        <v>0.02466321321952502</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05619956304890086</v>
+        <v>0.05666831527403868</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>337463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>323637</v>
+        <v>323240</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>347912</v>
+        <v>347646</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8945891232391006</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8579373984875726</v>
+        <v>0.8568840202758936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9222869636301925</v>
+        <v>0.9215836687695641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -5569,19 +5569,19 @@
         <v>327162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312058</v>
+        <v>311826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>339661</v>
+        <v>339629</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8788218110398756</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8382508701850949</v>
+        <v>0.8376266752223704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9123967260444965</v>
+        <v>0.9123112876386708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>630</v>
@@ -5590,19 +5590,19 @@
         <v>664625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>644914</v>
+        <v>644793</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>681153</v>
+        <v>682002</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8867575731606775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8604588204672321</v>
+        <v>0.8602981326887333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9088101575472501</v>
+        <v>0.9099427863329678</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>25140</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16531</v>
+        <v>16575</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36951</v>
+        <v>38325</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06664411102347965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04382266991670607</v>
+        <v>0.04393773755791779</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09795397383275992</v>
+        <v>0.1015965343183302</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -5640,19 +5640,19 @@
         <v>29863</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19252</v>
+        <v>19251</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42554</v>
+        <v>42918</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08021810645930315</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05171346060126824</v>
+        <v>0.05171140392818378</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1143077767225578</v>
+        <v>0.1152863118507621</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -5661,19 +5661,19 @@
         <v>55003</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40401</v>
+        <v>40938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70444</v>
+        <v>71499</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07338625094414174</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0539035677923948</v>
+        <v>0.05461992612178784</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09398738667551489</v>
+        <v>0.0953962240259069</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>14624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8421</v>
+        <v>8142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23484</v>
+        <v>23945</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0387667657374198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02232461737923567</v>
+        <v>0.02158347723117705</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06225497826259271</v>
+        <v>0.06347547165115054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5711,19 +5711,19 @@
         <v>15248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8640</v>
+        <v>8398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25271</v>
+        <v>25535</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04096008250082134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02320987161086246</v>
+        <v>0.022558908985918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06788305942055174</v>
+        <v>0.06859105305649106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -5732,19 +5732,19 @@
         <v>29872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20500</v>
+        <v>19993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42631</v>
+        <v>42479</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03985617589518075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02735100308272591</v>
+        <v>0.02667456234631991</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05687959935096346</v>
+        <v>0.05667621454444631</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>440685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>422938</v>
+        <v>421846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>456088</v>
+        <v>455833</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8443629836493965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8103589365957922</v>
+        <v>0.8082674612193914</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8738750151362821</v>
+        <v>0.8733868731093747</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>116</v>
@@ -5857,19 +5857,19 @@
         <v>121864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>108949</v>
+        <v>109494</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>132956</v>
+        <v>134123</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7335741773838098</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6558315848784307</v>
+        <v>0.6591167490699793</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8003470040119671</v>
+        <v>0.8073706275532537</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>536</v>
@@ -5878,19 +5878,19 @@
         <v>562548</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>542867</v>
+        <v>540219</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>583152</v>
+        <v>582374</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8176136072709993</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7890095116015438</v>
+        <v>0.7851611538678357</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8475609739301425</v>
+        <v>0.846429735549299</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>54756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40870</v>
+        <v>39425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69341</v>
+        <v>68715</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1049141732964565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07830703764040467</v>
+        <v>0.07553914602374845</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1328588371362609</v>
+        <v>0.1316604739755872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5928,19 +5928,19 @@
         <v>31158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21430</v>
+        <v>20914</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42986</v>
+        <v>44059</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1875568381572078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1290026629228808</v>
+        <v>0.1258937404754091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2587616491462166</v>
+        <v>0.2652180565982211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -5949,19 +5949,19 @@
         <v>85914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68838</v>
+        <v>69987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106666</v>
+        <v>105120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1248678114101713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1000496174873457</v>
+        <v>0.1017192416206135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1550290546598655</v>
+        <v>0.1527821412083862</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>26473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17848</v>
+        <v>17659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36690</v>
+        <v>38102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05072284305414701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03419781410002387</v>
+        <v>0.03383478632248101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07029904935653597</v>
+        <v>0.07300512294509162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -5999,19 +5999,19 @@
         <v>13102</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6775</v>
+        <v>6948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23381</v>
+        <v>21964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07886898445898237</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04078262083541157</v>
+        <v>0.04182705367543295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1407434951336897</v>
+        <v>0.1322163300251274</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -6020,19 +6020,19 @@
         <v>39575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28576</v>
+        <v>28452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54276</v>
+        <v>54219</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05751858131882939</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04153326745227489</v>
+        <v>0.04135317750908891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07888581088336415</v>
+        <v>0.07880207991723535</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>960290</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>935229</v>
+        <v>931229</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>985059</v>
+        <v>984176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8352973407629327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8134986732017029</v>
+        <v>0.8100193958040159</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8568427732946104</v>
+        <v>0.8560748068200212</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>685</v>
@@ -6145,19 +6145,19 @@
         <v>699063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>677659</v>
+        <v>674809</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>719793</v>
+        <v>721138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8464507323821743</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8205335164261015</v>
+        <v>0.8170823101006012</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8715503671228665</v>
+        <v>0.8731798483602167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1602</v>
@@ -6166,19 +6166,19 @@
         <v>1659353</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1629005</v>
+        <v>1627373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1690884</v>
+        <v>1692074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8399600846404289</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8245978948286206</v>
+        <v>0.8237719695644977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8559212521826394</v>
+        <v>0.8565234040051364</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>129154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108074</v>
+        <v>111195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150335</v>
+        <v>153433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1123431930298151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09400741230288799</v>
+        <v>0.09672212829239947</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1307671031972364</v>
+        <v>0.1334615823396497</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -6216,19 +6216,19 @@
         <v>70146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55079</v>
+        <v>55591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89679</v>
+        <v>88134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08493563202751776</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06669113455791015</v>
+        <v>0.06731142154616425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.108586553117923</v>
+        <v>0.1067154097610605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -6237,19 +6237,19 @@
         <v>199300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>173859</v>
+        <v>174803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>224255</v>
+        <v>227773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1008852937985089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08800720778680503</v>
+        <v>0.08848476129254373</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1135173862150479</v>
+        <v>0.115297993042719</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>60194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45504</v>
+        <v>47042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77750</v>
+        <v>77115</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05235946620725219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03958111894729388</v>
+        <v>0.04091890956841356</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06763009771711188</v>
+        <v>0.06707803992927994</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -6287,19 +6287,19 @@
         <v>56666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41009</v>
+        <v>41855</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73493</v>
+        <v>73973</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06861363559030792</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04965554440071879</v>
+        <v>0.05067998836798127</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08898759827297253</v>
+        <v>0.0895695798700783</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>108</v>
@@ -6308,19 +6308,19 @@
         <v>116861</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95944</v>
+        <v>94796</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140074</v>
+        <v>137367</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05915462156106222</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04856651215293955</v>
+        <v>0.04798564386108565</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07090505265579421</v>
+        <v>0.06953477461635357</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>494279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>473104</v>
+        <v>472594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>513811</v>
+        <v>512511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.796317971751535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7622023586383565</v>
+        <v>0.761381537066966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.827784729306864</v>
+        <v>0.8256910980001317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>512</v>
@@ -6433,19 +6433,19 @@
         <v>529083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>501656</v>
+        <v>501747</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>553439</v>
+        <v>553124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7166773687136723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6795265711933944</v>
+        <v>0.6796486523703708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7496689282923552</v>
+        <v>0.7492429637248708</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>978</v>
@@ -6454,19 +6454,19 @@
         <v>1023362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>991823</v>
+        <v>987754</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1054664</v>
+        <v>1053204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7530535343389818</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.729845128228804</v>
+        <v>0.7268506049348729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7760876601818997</v>
+        <v>0.7750127227637369</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>90035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74013</v>
+        <v>74512</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>108326</v>
+        <v>111214</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1450519866420639</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1192405300272332</v>
+        <v>0.1200438956736936</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1745208304216941</v>
+        <v>0.1791734344351598</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>116</v>
@@ -6504,19 +6504,19 @@
         <v>128379</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>108149</v>
+        <v>108544</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>151414</v>
+        <v>151546</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1738975431875414</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1464951026817095</v>
+        <v>0.1470305904304881</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2050995946499417</v>
+        <v>0.2052787587799393</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>209</v>
@@ -6525,19 +6525,19 @@
         <v>218413</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>191890</v>
+        <v>192469</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>247938</v>
+        <v>246400</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1607222192644708</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1412043183200653</v>
+        <v>0.141630460202599</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1824478654924119</v>
+        <v>0.1813161370742952</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>36392</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26925</v>
+        <v>25715</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50390</v>
+        <v>48669</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05863004160640117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04337798263690573</v>
+        <v>0.04142871738955493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08118094936883641</v>
+        <v>0.0784098268890417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -6575,19 +6575,19 @@
         <v>80782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63469</v>
+        <v>63245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99994</v>
+        <v>98467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1094250880987864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08597345280951028</v>
+        <v>0.08566923077377882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1354483267750362</v>
+        <v>0.1333800815598672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -6596,19 +6596,19 @@
         <v>117174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96903</v>
+        <v>96806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>140057</v>
+        <v>141614</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08622424639654737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07130691726216926</v>
+        <v>0.07123581988835445</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1030628914746685</v>
+        <v>0.1042085550477054</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>280799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>274350</v>
+        <v>274403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285005</v>
+        <v>284973</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9778991917472428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.955440151245661</v>
+        <v>0.9556251319692388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9925482888565333</v>
+        <v>0.9924348320096524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>706</v>
@@ -6721,19 +6721,19 @@
         <v>745077</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>710614</v>
+        <v>713874</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>773869</v>
+        <v>778006</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6885946323094347</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6567443241115036</v>
+        <v>0.6597569909399291</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7152039560806428</v>
+        <v>0.7190272990618741</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>972</v>
@@ -6742,19 +6742,19 @@
         <v>1025876</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>992984</v>
+        <v>990818</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1061633</v>
+        <v>1057564</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7492681793473861</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7252453068496603</v>
+        <v>0.7236632979289787</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7753845244161036</v>
+        <v>0.7724121586872232</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>4263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1074</v>
+        <v>1015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9823</v>
+        <v>9959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01484700618783398</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003739606114194435</v>
+        <v>0.003533683922265432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03420901178299223</v>
+        <v>0.03468429126148224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -6792,19 +6792,19 @@
         <v>204577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>179107</v>
+        <v>179336</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>234709</v>
+        <v>235009</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1890684384766461</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1655290972233485</v>
+        <v>0.165741379843171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.216916656660932</v>
+        <v>0.2171937539982991</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -6813,19 +6813,19 @@
         <v>208840</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179623</v>
+        <v>186054</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237818</v>
+        <v>237693</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.152530361484234</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1311910130429873</v>
+        <v>0.1358884731619465</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1736947070647341</v>
+        <v>0.1736036935627047</v>
       </c>
     </row>
     <row r="26">
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7512</v>
+        <v>7480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00725380206492317</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02616037527883883</v>
+        <v>0.02605042681208066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>107</v>
@@ -6863,19 +6863,19 @@
         <v>132372</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109453</v>
+        <v>110684</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156868</v>
+        <v>157701</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1223369292139191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1011559337332926</v>
+        <v>0.1022932338746025</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1449765225010028</v>
+        <v>0.1457464262780016</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>109</v>
@@ -6884,19 +6884,19 @@
         <v>134454</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>111612</v>
+        <v>110898</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>158381</v>
+        <v>161254</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09820145916837994</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0815182680217295</v>
+        <v>0.08099641267523315</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1156768334688891</v>
+        <v>0.1177753479286145</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2893741</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2857170</v>
+        <v>2850851</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2935097</v>
+        <v>2939726</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8546895327896602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8438880161940578</v>
+        <v>0.8420214651669993</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8669042686713441</v>
+        <v>0.868271637549189</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2632</v>
@@ -7009,19 +7009,19 @@
         <v>2729432</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2680389</v>
+        <v>2680361</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2783463</v>
+        <v>2787290</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7728606280802994</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7589737861244665</v>
+        <v>0.7589659088213864</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7881601825539926</v>
+        <v>0.7892437166551867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5368</v>
@@ -7030,19 +7030,19 @@
         <v>5623173</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5550214</v>
+        <v>5555722</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5690682</v>
+        <v>5693585</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8129122687976748</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8023649778212696</v>
+        <v>0.8031612312458534</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8226717553383019</v>
+        <v>0.8230914594618075</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>338515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>304648</v>
+        <v>302604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>371460</v>
+        <v>374241</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09998323661508322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0899803206652128</v>
+        <v>0.08937654888335876</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1097137454220164</v>
+        <v>0.110534970036968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>430</v>
@@ -7080,19 +7080,19 @@
         <v>487656</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>443426</v>
+        <v>443502</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>528584</v>
+        <v>531300</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.138083789153033</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1255596187997141</v>
+        <v>0.1255812151655882</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1496729702216274</v>
+        <v>0.1504417605022431</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>763</v>
@@ -7101,19 +7101,19 @@
         <v>826172</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>772388</v>
+        <v>774412</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>886884</v>
+        <v>890029</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.119435248679426</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1116599958648544</v>
+        <v>0.1119527035851527</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1282121150972942</v>
+        <v>0.1286667036710707</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>153465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>130588</v>
+        <v>128947</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>178797</v>
+        <v>177481</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04532723059525654</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03857016266251896</v>
+        <v>0.0380856427729129</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05280910151770182</v>
+        <v>0.05242031128227809</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>264</v>
@@ -7151,19 +7151,19 @@
         <v>314508</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>280725</v>
+        <v>277581</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>353834</v>
+        <v>350618</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08905558276666757</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07948965157287383</v>
+        <v>0.07859918065729614</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1001908232102988</v>
+        <v>0.0992801906554894</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>419</v>
@@ -7172,19 +7172,19 @@
         <v>467974</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>427024</v>
+        <v>427440</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>513264</v>
+        <v>512233</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06765248252289927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06173259401091441</v>
+        <v>0.06179279606848317</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07419980351295248</v>
+        <v>0.0740507943945658</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>501829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>488095</v>
+        <v>487659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>511590</v>
+        <v>512822</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9128411734426189</v>
+        <v>0.9128411734426188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8878590902846882</v>
+        <v>0.8870659206421365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9305973237082713</v>
+        <v>0.9328376030428389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>592</v>
@@ -7539,19 +7539,19 @@
         <v>427075</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>413746</v>
+        <v>413406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>439406</v>
+        <v>437603</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8744176984699228</v>
+        <v>0.8744176984699229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8471277228909856</v>
+        <v>0.8464296400378538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8996646001639466</v>
+        <v>0.8959737846903375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1084</v>
@@ -7560,19 +7560,19 @@
         <v>928904</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>910032</v>
+        <v>909862</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>944942</v>
+        <v>945603</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8947644467042364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8765859831763078</v>
+        <v>0.8764216983879753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9102132863327815</v>
+        <v>0.9108494646507591</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>32738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24647</v>
+        <v>23931</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44657</v>
+        <v>43336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05955091648340548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04483289045120162</v>
+        <v>0.04353056764529312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08123318356930251</v>
+        <v>0.07882997110385581</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -7610,19 +7610,19 @@
         <v>41437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32387</v>
+        <v>32209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52604</v>
+        <v>53370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08483995595474768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0663110963376578</v>
+        <v>0.06594550487809911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1077048975560365</v>
+        <v>0.1092731938754407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -7631,19 +7631,19 @@
         <v>74175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61220</v>
+        <v>61341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89481</v>
+        <v>89334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07144841030260003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05896995574934514</v>
+        <v>0.05908691857667076</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08619211093683282</v>
+        <v>0.08605048085729509</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>15177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9060</v>
+        <v>9411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23635</v>
+        <v>23469</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0276079100739756</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01648123487675094</v>
+        <v>0.01711911411001047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04299333583228387</v>
+        <v>0.04268990417893038</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -7681,19 +7681,19 @@
         <v>19899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13828</v>
+        <v>13290</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29472</v>
+        <v>28018</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0407423455753295</v>
+        <v>0.04074234557532949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02831289866432547</v>
+        <v>0.02721126542117908</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06034275364655439</v>
+        <v>0.05736617589714191</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -7702,19 +7702,19 @@
         <v>35076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25751</v>
+        <v>26238</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47347</v>
+        <v>45801</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0337871429931638</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02480461488705657</v>
+        <v>0.02527345166730052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04560690234442868</v>
+        <v>0.04411764652167975</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>427901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414191</v>
+        <v>414072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440913</v>
+        <v>440978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8855337921355794</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.857162156380823</v>
+        <v>0.8569152932412426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.912462031952879</v>
+        <v>0.9125976424089266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>492</v>
@@ -7827,19 +7827,19 @@
         <v>360911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>348837</v>
+        <v>348079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>372340</v>
+        <v>371643</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8529283606944263</v>
+        <v>0.8529283606944261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8243954298064665</v>
+        <v>0.8226030374134887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8799381012797085</v>
+        <v>0.878291019381618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>907</v>
@@ -7848,19 +7848,19 @@
         <v>788811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>770766</v>
+        <v>767637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>806129</v>
+        <v>804517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8703115499633388</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8504014191036564</v>
+        <v>0.8469493439467292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.889418066327865</v>
+        <v>0.8876403682589949</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>44565</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33432</v>
+        <v>33280</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57039</v>
+        <v>57485</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0922260717101709</v>
+        <v>0.09222607171017089</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06918679080904047</v>
+        <v>0.06887197203710023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1180409084370058</v>
+        <v>0.1189641387720021</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -7898,19 +7898,19 @@
         <v>42286</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32645</v>
+        <v>33001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53136</v>
+        <v>53272</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09993379588177068</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07714851353529564</v>
+        <v>0.07799081328926549</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1255748428128633</v>
+        <v>0.1258960132439774</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>119</v>
@@ -7919,19 +7919,19 @@
         <v>86851</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72112</v>
+        <v>72429</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103404</v>
+        <v>103908</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09582451647078331</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07956218926163068</v>
+        <v>0.07991198569358597</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1140872806035459</v>
+        <v>0.114644367812101</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>10747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6346</v>
+        <v>5946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19682</v>
+        <v>18268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02224013615424979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01313234025957867</v>
+        <v>0.01230612215687573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04073080958269394</v>
+        <v>0.03780558328639032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -7969,19 +7969,19 @@
         <v>19946</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14203</v>
+        <v>14130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27622</v>
+        <v>28501</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04713784342380301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03356574669972435</v>
+        <v>0.03339265241875831</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06527902707727305</v>
+        <v>0.06735491746691301</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -7990,19 +7990,19 @@
         <v>30693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23303</v>
+        <v>22952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40644</v>
+        <v>41914</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03386393356587791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02571065239583834</v>
+        <v>0.0253228916122253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0448428066398972</v>
+        <v>0.04624480819343505</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>393075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>376702</v>
+        <v>374352</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>408962</v>
+        <v>407538</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.83347165470768</v>
+        <v>0.8334716547076799</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7987535769016717</v>
+        <v>0.7937711780679096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8671571653895418</v>
+        <v>0.8641387247495278</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -8115,19 +8115,19 @@
         <v>138536</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>128560</v>
+        <v>127271</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>147304</v>
+        <v>147419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7388704434560076</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6856620873582169</v>
+        <v>0.6787876301527529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7856362845276847</v>
+        <v>0.7862464485116112</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>601</v>
@@ -8136,19 +8136,19 @@
         <v>531611</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>511125</v>
+        <v>512124</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>547745</v>
+        <v>549532</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.806560369528714</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7754783256385059</v>
+        <v>0.7769951508522663</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8310385166226181</v>
+        <v>0.8337496912562373</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>54029</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42045</v>
+        <v>42621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69565</v>
+        <v>70300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1145633760561726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08915080311320196</v>
+        <v>0.09037236265177652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1475040513490124</v>
+        <v>0.1490625674184605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -8186,19 +8186,19 @@
         <v>31394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24080</v>
+        <v>24341</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39436</v>
+        <v>40425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1674389546948757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1284270725290471</v>
+        <v>0.1298182692767043</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2103311690542048</v>
+        <v>0.2156052870034473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -8207,19 +8207,19 @@
         <v>85424</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71800</v>
+        <v>70963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102762</v>
+        <v>101229</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296049358514635</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1089351272095983</v>
+        <v>0.1076650622458093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1559097446918101</v>
+        <v>0.1535844150880843</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>24507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15817</v>
+        <v>16605</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35650</v>
+        <v>36365</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05196496923614752</v>
+        <v>0.05196496923614751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03353782353148557</v>
+        <v>0.03521001507383301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07559157714613272</v>
+        <v>0.07710842509357295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -8257,19 +8257,19 @@
         <v>17567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11920</v>
+        <v>11609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25474</v>
+        <v>25013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09369060184911669</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0635763554281374</v>
+        <v>0.06191825958112755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1358619574589706</v>
+        <v>0.1334049505674443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -8278,19 +8278,19 @@
         <v>42074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31684</v>
+        <v>31608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54678</v>
+        <v>55144</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06383469461982251</v>
+        <v>0.06383469461982252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04807143719016954</v>
+        <v>0.0479558940561528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08295689342147552</v>
+        <v>0.08366489239885416</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>914945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>889265</v>
+        <v>886746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>941220</v>
+        <v>939124</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8083673749369933</v>
+        <v>0.8083673749369935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7856788373700784</v>
+        <v>0.7834533819098064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8315814987968058</v>
+        <v>0.8297299673953601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>986</v>
@@ -8403,19 +8403,19 @@
         <v>722192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>706276</v>
+        <v>703933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>739071</v>
+        <v>739393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8385772347447442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8200960014683913</v>
+        <v>0.8173760238795786</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8581760204919843</v>
+        <v>0.8585505717753835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1848</v>
@@ -8424,19 +8424,19 @@
         <v>1637137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1607830</v>
+        <v>1606449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1668339</v>
+        <v>1666946</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8214212478312207</v>
+        <v>0.8214212478312211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.806716889376748</v>
+        <v>0.8060240369633052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8370768237645464</v>
+        <v>0.8363775265180804</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>149120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125913</v>
+        <v>127190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171892</v>
+        <v>172061</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1317499495215657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1112458287933341</v>
+        <v>0.1123743947899835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1518690812677138</v>
+        <v>0.1520182287982987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -8474,19 +8474,19 @@
         <v>97224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81865</v>
+        <v>82217</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110708</v>
+        <v>112958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1128921427288668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09505765089303227</v>
+        <v>0.09546708255098263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1285488066914593</v>
+        <v>0.1311617360173095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>340</v>
@@ -8495,19 +8495,19 @@
         <v>246344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218863</v>
+        <v>221847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>272673</v>
+        <v>271076</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1236013710606807</v>
+        <v>0.1236013710606808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1098128942609118</v>
+        <v>0.1113100043677606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1368116050161093</v>
+        <v>0.1360104426707419</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>67778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54450</v>
+        <v>53512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84018</v>
+        <v>85285</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05988267554144083</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04810720936482678</v>
+        <v>0.04727894483701787</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07423114849454603</v>
+        <v>0.07535073863927086</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -8545,19 +8545,19 @@
         <v>41795</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33556</v>
+        <v>32643</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51974</v>
+        <v>52149</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04853062252638896</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03896379466820197</v>
+        <v>0.03790328680882941</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06035010144477361</v>
+        <v>0.06055341843741336</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>160</v>
@@ -8566,19 +8566,19 @@
         <v>109573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93030</v>
+        <v>93169</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>128150</v>
+        <v>131221</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05497738110809827</v>
+        <v>0.05497738110809829</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0466771519663448</v>
+        <v>0.04674705736203225</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06429809660915574</v>
+        <v>0.06583930146518083</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>460561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>441302</v>
+        <v>443258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>478911</v>
+        <v>479362</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8108981709541198</v>
+        <v>0.8108981709541195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7769885776509171</v>
+        <v>0.7804336392331431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8432069428880277</v>
+        <v>0.8440003764902695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>844</v>
@@ -8691,19 +8691,19 @@
         <v>587801</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>567518</v>
+        <v>566484</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>608825</v>
+        <v>608259</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7074693446793373</v>
+        <v>0.7074693446793374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6830566493048027</v>
+        <v>0.6818126799014625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7327733758835314</v>
+        <v>0.73209216353897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1264</v>
@@ -8712,19 +8712,19 @@
         <v>1048362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1022729</v>
+        <v>1019248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1080298</v>
+        <v>1075274</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7494647951611597</v>
+        <v>0.7494647951611595</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7311399824784033</v>
+        <v>0.7286512498312753</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7722959831214669</v>
+        <v>0.7687039000938533</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>70890</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56969</v>
+        <v>55616</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88133</v>
+        <v>86644</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1248134990404579</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1003046462159732</v>
+        <v>0.09792108925652539</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1551736684437413</v>
+        <v>0.1525525431501922</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>262</v>
@@ -8762,19 +8762,19 @@
         <v>144272</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>129082</v>
+        <v>129362</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>162603</v>
+        <v>161550</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1736437612431678</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1553611483047309</v>
+        <v>0.1556989789039476</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1957073635089942</v>
+        <v>0.1944396588279368</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>340</v>
@@ -8783,19 +8783,19 @@
         <v>215162</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>191086</v>
+        <v>190649</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>237387</v>
+        <v>238708</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1538170946144634</v>
+        <v>0.1538170946144633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1366059114188735</v>
+        <v>0.1362936165870463</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1697055926983863</v>
+        <v>0.1706504134289291</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>36513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27003</v>
+        <v>26420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47936</v>
+        <v>48751</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06428833000542232</v>
+        <v>0.06428833000542231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04754264511791172</v>
+        <v>0.04651716453945891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0843988952256545</v>
+        <v>0.08583408945504865</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -8833,19 +8833,19 @@
         <v>98777</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85136</v>
+        <v>85227</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>112027</v>
+        <v>113402</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1188868940774949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.102468677061219</v>
+        <v>0.1025783410811925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1348347095103486</v>
+        <v>0.1364891035194452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>233</v>
@@ -8854,19 +8854,19 @@
         <v>135291</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116810</v>
+        <v>119500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>152208</v>
+        <v>154429</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0967181102243771</v>
+        <v>0.09671811022437708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.083506591544526</v>
+        <v>0.0854294524113339</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1088119361057922</v>
+        <v>0.110400254766198</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>231636</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>226189</v>
+        <v>226172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>234769</v>
+        <v>234952</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9764287108906755</v>
+        <v>0.9764287108906754</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9534668078040826</v>
+        <v>0.9533969576029877</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9896342989184667</v>
+        <v>0.9904062623530534</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>678</v>
@@ -8979,19 +8979,19 @@
         <v>571908</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>548378</v>
+        <v>547234</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>596727</v>
+        <v>595690</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.677854132733555</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6499651146395822</v>
+        <v>0.6486088097240894</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7072708395140271</v>
+        <v>0.7060409647587005</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>782</v>
@@ -9000,19 +9000,19 @@
         <v>803544</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>778261</v>
+        <v>778588</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>828470</v>
+        <v>828907</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7433810578556411</v>
+        <v>0.743381057855641</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7199904728212703</v>
+        <v>0.7202927895039507</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7664408105458229</v>
+        <v>0.766844913722002</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>3895</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8649</v>
+        <v>8699</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01641950461826069</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005183325878835025</v>
+        <v>0.005477917765894137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03645891435458853</v>
+        <v>0.03667110670379879</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>304</v>
@@ -9050,19 +9050,19 @@
         <v>169293</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150074</v>
+        <v>151569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>189425</v>
+        <v>188793</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2006548537238701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1778750972899357</v>
+        <v>0.1796465844927995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2245156363994728</v>
+        <v>0.2237662759182925</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>309</v>
@@ -9071,19 +9071,19 @@
         <v>173189</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153163</v>
+        <v>151759</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194880</v>
+        <v>193680</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1602214852830657</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.141694952973228</v>
+        <v>0.1403966001891813</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1802892559936382</v>
+        <v>0.1791783232969282</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>1697</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5261</v>
+        <v>4871</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007151784491063908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002111047043636368</v>
+        <v>0.002086892510558197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02217714615699379</v>
+        <v>0.02053197274298215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>176</v>
@@ -9121,19 +9121,19 @@
         <v>102502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88133</v>
+        <v>87014</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118629</v>
+        <v>119201</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1214910135425748</v>
+        <v>0.1214910135425749</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1044592508189241</v>
+        <v>0.1031335784763689</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1406051384587375</v>
+        <v>0.1412824531955306</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -9142,19 +9142,19 @@
         <v>104199</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>90329</v>
+        <v>89917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121353</v>
+        <v>120101</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09639745686129346</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08356613566941444</v>
+        <v>0.08318454298098966</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1122669852293799</v>
+        <v>0.1111084415699376</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>2929946</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2891587</v>
+        <v>2888908</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2970339</v>
+        <v>2970680</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8513320364344475</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8401864087475355</v>
+        <v>0.8394078239890472</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8630686620744222</v>
+        <v>0.863167825489687</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3798</v>
@@ -9267,19 +9267,19 @@
         <v>2808424</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2768738</v>
+        <v>2766919</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2845786</v>
+        <v>2847007</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7726451357876087</v>
+        <v>0.7726451357876088</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7617267946447414</v>
+        <v>0.7612264276460697</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7829240845456031</v>
+        <v>0.7832599337604268</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6486</v>
@@ -9288,19 +9288,19 @@
         <v>5738369</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5685869</v>
+        <v>5683396</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5799401</v>
+        <v>5795254</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8109143498463366</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8034952903795798</v>
+        <v>0.8031458210796832</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8195390215040153</v>
+        <v>0.8189530139833486</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>355237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>321163</v>
+        <v>320732</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>391602</v>
+        <v>389084</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1032184638931337</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09331800575269031</v>
+        <v>0.09319266081049911</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1137847148056853</v>
+        <v>0.1130530272743073</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>921</v>
@@ -9338,19 +9338,19 @@
         <v>525907</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>492526</v>
+        <v>493685</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>558538</v>
+        <v>562550</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1446858859812713</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1355022590295563</v>
+        <v>0.1358211662054367</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1536631839000377</v>
+        <v>0.1547671813080838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1335</v>
@@ -9359,19 +9359,19 @@
         <v>881143</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>833444</v>
+        <v>839303</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>924927</v>
+        <v>932444</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1245182896048811</v>
+        <v>0.1245182896048812</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1177776912715513</v>
+        <v>0.1186056795539031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1307055639064372</v>
+        <v>0.131767809048056</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>156419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>135786</v>
+        <v>135948</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>183401</v>
+        <v>180867</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04544949967241874</v>
+        <v>0.04544949967241872</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03945443467990279</v>
+        <v>0.03950142879889496</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05328937933820808</v>
+        <v>0.05255314268009279</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>524</v>
@@ -9409,19 +9409,19 @@
         <v>300487</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>273748</v>
+        <v>276747</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>325416</v>
+        <v>327111</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08266897823111991</v>
+        <v>0.08266897823111993</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07531269721093775</v>
+        <v>0.07613787656911671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08952753021837914</v>
+        <v>0.08999390877024369</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>721</v>
@@ -9430,19 +9430,19 @@
         <v>456906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>420315</v>
+        <v>423165</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>489234</v>
+        <v>491607</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06456736054878223</v>
+        <v>0.06456736054878225</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05939657241225166</v>
+        <v>0.05979928741076786</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06913585384827824</v>
+        <v>0.06947118471886206</v>
       </c>
     </row>
     <row r="31">
